--- a/data/zzz/out.xlsx
+++ b/data/zzz/out.xlsx
@@ -892,23 +892,23 @@
         <v>16</v>
       </c>
       <c r="C30" s="6">
-        <f>SUM(C31)/SUM(H31)</f>
+        <f>IF(SUM(H31)=0,0,(SUM(C31)/SUM(H31))</f>
         <v/>
       </c>
       <c r="D30" s="6">
-        <f>SUM(D31)/SUM(H31)</f>
+        <f>IF(SUM(H31)=0,0,(SUM(D31)/SUM(H31))</f>
         <v/>
       </c>
       <c r="E30" s="6">
-        <f>SUM(E31)/SUM(H31)</f>
+        <f>IF(SUM(H31)=0,0,(SUM(E31)/SUM(H31))</f>
         <v/>
       </c>
       <c r="F30" s="6">
-        <f>SUM(F31)/SUM(H31)</f>
+        <f>IF(SUM(H31)=0,0,(SUM(F31)/SUM(H31))</f>
         <v/>
       </c>
       <c r="G30" s="6">
-        <f>SUM(G31)/SUM(H31)</f>
+        <f>IF(SUM(H31)=0,0,(SUM(G31)/SUM(H31))</f>
         <v/>
       </c>
     </row>
@@ -966,11 +966,11 @@
         <v>16</v>
       </c>
       <c r="C34" s="6">
-        <f>SUM(C35)/SUM(E35)</f>
+        <f>IF(SUM(E35)=0,0,(SUM(C35)/SUM(E35))</f>
         <v/>
       </c>
       <c r="D34" s="6">
-        <f>SUM(D35)/SUM(E35)</f>
+        <f>IF(SUM(E35)=0,0,(SUM(D35)/SUM(E35))</f>
         <v/>
       </c>
     </row>
@@ -1019,15 +1019,15 @@
         <v>16</v>
       </c>
       <c r="C38" s="6">
-        <f>SUM(C39)/SUM(F39)</f>
+        <f>IF(SUM(F39)=0,0,(SUM(C39)/SUM(F39))</f>
         <v/>
       </c>
       <c r="D38" s="6">
-        <f>SUM(D39)/SUM(F39)</f>
+        <f>IF(SUM(F39)=0,0,(SUM(D39)/SUM(F39))</f>
         <v/>
       </c>
       <c r="E38" s="6">
-        <f>SUM(E39)/SUM(F39)</f>
+        <f>IF(SUM(F39)=0,0,(SUM(E39)/SUM(F39))</f>
         <v/>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="6">
-        <f>SUM(C43)/SUM(D43)</f>
+        <f>IF(SUM(D43)=0,0,(SUM(C43)/SUM(D43))</f>
         <v/>
       </c>
     </row>
@@ -1133,27 +1133,27 @@
         <v>16</v>
       </c>
       <c r="C52" s="6">
-        <f>SUM(C53:C57)/SUM(I53:I57)</f>
+        <f>IF(SUM(I53:I57)=0,0,(SUM(C53:C57)/SUM(I53:I57))</f>
         <v/>
       </c>
       <c r="D52" s="6">
-        <f>SUM(D53:D57)/SUM(I53:I57)</f>
+        <f>IF(SUM(I53:I57)=0,0,(SUM(D53:D57)/SUM(I53:I57))</f>
         <v/>
       </c>
       <c r="E52" s="6">
-        <f>SUM(E53:E57)/SUM(I53:I57)</f>
+        <f>IF(SUM(I53:I57)=0,0,(SUM(E53:E57)/SUM(I53:I57))</f>
         <v/>
       </c>
       <c r="F52" s="6">
-        <f>SUM(F53:F57)/SUM(I53:I57)</f>
+        <f>IF(SUM(I53:I57)=0,0,(SUM(F53:F57)/SUM(I53:I57))</f>
         <v/>
       </c>
       <c r="G52" s="6">
-        <f>SUM(G53:G57)/SUM(I53:I57)</f>
+        <f>IF(SUM(I53:I57)=0,0,(SUM(G53:G57)/SUM(I53:I57))</f>
         <v/>
       </c>
       <c r="H52" s="6">
-        <f>SUM(H53:H57)/SUM(I53:I57)</f>
+        <f>IF(SUM(I53:I57)=0,0,(SUM(H53:H57)/SUM(I53:I57))</f>
         <v/>
       </c>
     </row>
@@ -1358,19 +1358,19 @@
         <v>16</v>
       </c>
       <c r="C60" s="6">
-        <f>SUM(C61:C65)/SUM(G61:G65)</f>
+        <f>IF(SUM(G61:G65)=0,0,(SUM(C61:C65)/SUM(G61:G65))</f>
         <v/>
       </c>
       <c r="D60" s="6">
-        <f>SUM(D61:D65)/SUM(G61:G65)</f>
+        <f>IF(SUM(G61:G65)=0,0,(SUM(D61:D65)/SUM(G61:G65))</f>
         <v/>
       </c>
       <c r="E60" s="6">
-        <f>SUM(E61:E65)/SUM(G61:G65)</f>
+        <f>IF(SUM(G61:G65)=0,0,(SUM(E61:E65)/SUM(G61:G65))</f>
         <v/>
       </c>
       <c r="F60" s="6">
-        <f>SUM(F61:F65)/SUM(G61:G65)</f>
+        <f>IF(SUM(G61:G65)=0,0,(SUM(F61:F65)/SUM(G61:G65))</f>
         <v/>
       </c>
     </row>
@@ -1528,15 +1528,15 @@
         <v>16</v>
       </c>
       <c r="C68" s="6">
-        <f>SUM(C69:C73)/SUM(F69:F73)</f>
+        <f>IF(SUM(F69:F73)=0,0,(SUM(C69:C73)/SUM(F69:F73))</f>
         <v/>
       </c>
       <c r="D68" s="6">
-        <f>SUM(D69:D73)/SUM(F69:F73)</f>
+        <f>IF(SUM(F69:F73)=0,0,(SUM(D69:D73)/SUM(F69:F73))</f>
         <v/>
       </c>
       <c r="E68" s="6">
-        <f>SUM(E69:E73)/SUM(F69:F73)</f>
+        <f>IF(SUM(F69:F73)=0,0,(SUM(E69:E73)/SUM(F69:F73))</f>
         <v/>
       </c>
     </row>
@@ -1679,11 +1679,11 @@
         <v>16</v>
       </c>
       <c r="C76" s="6">
-        <f>SUM(C77:C81)/SUM(E77:E81)</f>
+        <f>IF(SUM(E77:E81)=0,0,(SUM(C77:C81)/SUM(E77:E81))</f>
         <v/>
       </c>
       <c r="D76" s="6">
-        <f>SUM(D77:D81)/SUM(E77:E81)</f>
+        <f>IF(SUM(E77:E81)=0,0,(SUM(D77:D81)/SUM(E77:E81))</f>
         <v/>
       </c>
     </row>
@@ -1829,35 +1829,35 @@
         <v>16</v>
       </c>
       <c r="C90" s="6">
-        <f>SUM(C91:C102)/SUM(K91:K102)</f>
+        <f>IF(SUM(K91:K102)=0,0,(SUM(C91:C102)/SUM(K91:K102))</f>
         <v/>
       </c>
       <c r="D90" s="6">
-        <f>SUM(D91:D102)/SUM(K91:K102)</f>
+        <f>IF(SUM(K91:K102)=0,0,(SUM(D91:D102)/SUM(K91:K102))</f>
         <v/>
       </c>
       <c r="E90" s="6">
-        <f>SUM(E91:E102)/SUM(K91:K102)</f>
+        <f>IF(SUM(K91:K102)=0,0,(SUM(E91:E102)/SUM(K91:K102))</f>
         <v/>
       </c>
       <c r="F90" s="6">
-        <f>SUM(F91:F102)/SUM(K91:K102)</f>
+        <f>IF(SUM(K91:K102)=0,0,(SUM(F91:F102)/SUM(K91:K102))</f>
         <v/>
       </c>
       <c r="G90" s="6">
-        <f>SUM(G91:G102)/SUM(K91:K102)</f>
+        <f>IF(SUM(K91:K102)=0,0,(SUM(G91:G102)/SUM(K91:K102))</f>
         <v/>
       </c>
       <c r="H90" s="6">
-        <f>SUM(H91:H102)/SUM(K91:K102)</f>
+        <f>IF(SUM(K91:K102)=0,0,(SUM(H91:H102)/SUM(K91:K102))</f>
         <v/>
       </c>
       <c r="I90" s="6">
-        <f>SUM(I91:I102)/SUM(K91:K102)</f>
+        <f>IF(SUM(K91:K102)=0,0,(SUM(I91:I102)/SUM(K91:K102))</f>
         <v/>
       </c>
       <c r="J90" s="6">
-        <f>SUM(J91:J102)/SUM(K91:K102)</f>
+        <f>IF(SUM(K91:K102)=0,0,(SUM(J91:J102)/SUM(K91:K102))</f>
         <v/>
       </c>
     </row>
@@ -2378,23 +2378,23 @@
         <v>16</v>
       </c>
       <c r="C105" s="6">
-        <f>SUM(C106:C117)/SUM(H106:H117)</f>
+        <f>IF(SUM(H106:H117)=0,0,(SUM(C106:C117)/SUM(H106:H117))</f>
         <v/>
       </c>
       <c r="D105" s="6">
-        <f>SUM(D106:D117)/SUM(H106:H117)</f>
+        <f>IF(SUM(H106:H117)=0,0,(SUM(D106:D117)/SUM(H106:H117))</f>
         <v/>
       </c>
       <c r="E105" s="6">
-        <f>SUM(E106:E117)/SUM(H106:H117)</f>
+        <f>IF(SUM(H106:H117)=0,0,(SUM(E106:E117)/SUM(H106:H117))</f>
         <v/>
       </c>
       <c r="F105" s="6">
-        <f>SUM(F106:F117)/SUM(H106:H117)</f>
+        <f>IF(SUM(H106:H117)=0,0,(SUM(F106:F117)/SUM(H106:H117))</f>
         <v/>
       </c>
       <c r="G105" s="6">
-        <f>SUM(G106:G117)/SUM(H106:H117)</f>
+        <f>IF(SUM(H106:H117)=0,0,(SUM(G106:G117)/SUM(H106:H117))</f>
         <v/>
       </c>
     </row>
@@ -2785,35 +2785,35 @@
         <v>16</v>
       </c>
       <c r="C120" s="6">
-        <f>SUM(C121:C132)/SUM(K121:K132)</f>
+        <f>IF(SUM(K121:K132)=0,0,(SUM(C121:C132)/SUM(K121:K132))</f>
         <v/>
       </c>
       <c r="D120" s="6">
-        <f>SUM(D121:D132)/SUM(K121:K132)</f>
+        <f>IF(SUM(K121:K132)=0,0,(SUM(D121:D132)/SUM(K121:K132))</f>
         <v/>
       </c>
       <c r="E120" s="6">
-        <f>SUM(E121:E132)/SUM(K121:K132)</f>
+        <f>IF(SUM(K121:K132)=0,0,(SUM(E121:E132)/SUM(K121:K132))</f>
         <v/>
       </c>
       <c r="F120" s="6">
-        <f>SUM(F121:F132)/SUM(K121:K132)</f>
+        <f>IF(SUM(K121:K132)=0,0,(SUM(F121:F132)/SUM(K121:K132))</f>
         <v/>
       </c>
       <c r="G120" s="6">
-        <f>SUM(G121:G132)/SUM(K121:K132)</f>
+        <f>IF(SUM(K121:K132)=0,0,(SUM(G121:G132)/SUM(K121:K132))</f>
         <v/>
       </c>
       <c r="H120" s="6">
-        <f>SUM(H121:H132)/SUM(K121:K132)</f>
+        <f>IF(SUM(K121:K132)=0,0,(SUM(H121:H132)/SUM(K121:K132))</f>
         <v/>
       </c>
       <c r="I120" s="6">
-        <f>SUM(I121:I132)/SUM(K121:K132)</f>
+        <f>IF(SUM(K121:K132)=0,0,(SUM(I121:I132)/SUM(K121:K132))</f>
         <v/>
       </c>
       <c r="J120" s="6">
-        <f>SUM(J121:J132)/SUM(K121:K132)</f>
+        <f>IF(SUM(K121:K132)=0,0,(SUM(J121:J132)/SUM(K121:K132))</f>
         <v/>
       </c>
     </row>
@@ -3302,23 +3302,23 @@
         <v>16</v>
       </c>
       <c r="C135" s="6">
-        <f>SUM(C136:C147)/SUM(H136:H147)</f>
+        <f>IF(SUM(H136:H147)=0,0,(SUM(C136:C147)/SUM(H136:H147))</f>
         <v/>
       </c>
       <c r="D135" s="6">
-        <f>SUM(D136:D147)/SUM(H136:H147)</f>
+        <f>IF(SUM(H136:H147)=0,0,(SUM(D136:D147)/SUM(H136:H147))</f>
         <v/>
       </c>
       <c r="E135" s="6">
-        <f>SUM(E136:E147)/SUM(H136:H147)</f>
+        <f>IF(SUM(H136:H147)=0,0,(SUM(E136:E147)/SUM(H136:H147))</f>
         <v/>
       </c>
       <c r="F135" s="6">
-        <f>SUM(F136:F147)/SUM(H136:H147)</f>
+        <f>IF(SUM(H136:H147)=0,0,(SUM(F136:F147)/SUM(H136:H147))</f>
         <v/>
       </c>
       <c r="G135" s="6">
-        <f>SUM(G136:G147)/SUM(H136:H147)</f>
+        <f>IF(SUM(H136:H147)=0,0,(SUM(G136:G147)/SUM(H136:H147))</f>
         <v/>
       </c>
     </row>
@@ -3712,35 +3712,35 @@
         <v>16</v>
       </c>
       <c r="C156" s="6">
-        <f>SUM(C157:C175)/SUM(K157:K175)</f>
+        <f>IF(SUM(K157:K175)=0,0,(SUM(C157:C175)/SUM(K157:K175))</f>
         <v/>
       </c>
       <c r="D156" s="6">
-        <f>SUM(D157:D175)/SUM(K157:K175)</f>
+        <f>IF(SUM(K157:K175)=0,0,(SUM(D157:D175)/SUM(K157:K175))</f>
         <v/>
       </c>
       <c r="E156" s="6">
-        <f>SUM(E157:E175)/SUM(K157:K175)</f>
+        <f>IF(SUM(K157:K175)=0,0,(SUM(E157:E175)/SUM(K157:K175))</f>
         <v/>
       </c>
       <c r="F156" s="6">
-        <f>SUM(F157:F175)/SUM(K157:K175)</f>
+        <f>IF(SUM(K157:K175)=0,0,(SUM(F157:F175)/SUM(K157:K175))</f>
         <v/>
       </c>
       <c r="G156" s="6">
-        <f>SUM(G157:G175)/SUM(K157:K175)</f>
+        <f>IF(SUM(K157:K175)=0,0,(SUM(G157:G175)/SUM(K157:K175))</f>
         <v/>
       </c>
       <c r="H156" s="6">
-        <f>SUM(H157:H175)/SUM(K157:K175)</f>
+        <f>IF(SUM(K157:K175)=0,0,(SUM(H157:H175)/SUM(K157:K175))</f>
         <v/>
       </c>
       <c r="I156" s="6">
-        <f>SUM(I157:I175)/SUM(K157:K175)</f>
+        <f>IF(SUM(K157:K175)=0,0,(SUM(I157:I175)/SUM(K157:K175))</f>
         <v/>
       </c>
       <c r="J156" s="6">
-        <f>SUM(J157:J175)/SUM(K157:K175)</f>
+        <f>IF(SUM(K157:K175)=0,0,(SUM(J157:J175)/SUM(K157:K175))</f>
         <v/>
       </c>
     </row>
@@ -4548,23 +4548,23 @@
         <v>16</v>
       </c>
       <c r="C178" s="6">
-        <f>SUM(C179:C197)/SUM(H179:H197)</f>
+        <f>IF(SUM(H179:H197)=0,0,(SUM(C179:C197)/SUM(H179:H197))</f>
         <v/>
       </c>
       <c r="D178" s="6">
-        <f>SUM(D179:D197)/SUM(H179:H197)</f>
+        <f>IF(SUM(H179:H197)=0,0,(SUM(D179:D197)/SUM(H179:H197))</f>
         <v/>
       </c>
       <c r="E178" s="6">
-        <f>SUM(E179:E197)/SUM(H179:H197)</f>
+        <f>IF(SUM(H179:H197)=0,0,(SUM(E179:E197)/SUM(H179:H197))</f>
         <v/>
       </c>
       <c r="F178" s="6">
-        <f>SUM(F179:F197)/SUM(H179:H197)</f>
+        <f>IF(SUM(H179:H197)=0,0,(SUM(F179:F197)/SUM(H179:H197))</f>
         <v/>
       </c>
       <c r="G178" s="6">
-        <f>SUM(G179:G197)/SUM(H179:H197)</f>
+        <f>IF(SUM(H179:H197)=0,0,(SUM(G179:G197)/SUM(H179:H197))</f>
         <v/>
       </c>
     </row>
@@ -5158,35 +5158,35 @@
         <v>16</v>
       </c>
       <c r="C200" s="6">
-        <f>SUM(C201:C219)/SUM(K201:K219)</f>
+        <f>IF(SUM(K201:K219)=0,0,(SUM(C201:C219)/SUM(K201:K219))</f>
         <v/>
       </c>
       <c r="D200" s="6">
-        <f>SUM(D201:D219)/SUM(K201:K219)</f>
+        <f>IF(SUM(K201:K219)=0,0,(SUM(D201:D219)/SUM(K201:K219))</f>
         <v/>
       </c>
       <c r="E200" s="6">
-        <f>SUM(E201:E219)/SUM(K201:K219)</f>
+        <f>IF(SUM(K201:K219)=0,0,(SUM(E201:E219)/SUM(K201:K219))</f>
         <v/>
       </c>
       <c r="F200" s="6">
-        <f>SUM(F201:F219)/SUM(K201:K219)</f>
+        <f>IF(SUM(K201:K219)=0,0,(SUM(F201:F219)/SUM(K201:K219))</f>
         <v/>
       </c>
       <c r="G200" s="6">
-        <f>SUM(G201:G219)/SUM(K201:K219)</f>
+        <f>IF(SUM(K201:K219)=0,0,(SUM(G201:G219)/SUM(K201:K219))</f>
         <v/>
       </c>
       <c r="H200" s="6">
-        <f>SUM(H201:H219)/SUM(K201:K219)</f>
+        <f>IF(SUM(K201:K219)=0,0,(SUM(H201:H219)/SUM(K201:K219))</f>
         <v/>
       </c>
       <c r="I200" s="6">
-        <f>SUM(I201:I219)/SUM(K201:K219)</f>
+        <f>IF(SUM(K201:K219)=0,0,(SUM(I201:I219)/SUM(K201:K219))</f>
         <v/>
       </c>
       <c r="J200" s="6">
-        <f>SUM(J201:J219)/SUM(K201:K219)</f>
+        <f>IF(SUM(K201:K219)=0,0,(SUM(J201:J219)/SUM(K201:K219))</f>
         <v/>
       </c>
     </row>
@@ -5941,23 +5941,23 @@
         <v>16</v>
       </c>
       <c r="C222" s="6">
-        <f>SUM(C223:C241)/SUM(H223:H241)</f>
+        <f>IF(SUM(H223:H241)=0,0,(SUM(C223:C241)/SUM(H223:H241))</f>
         <v/>
       </c>
       <c r="D222" s="6">
-        <f>SUM(D223:D241)/SUM(H223:H241)</f>
+        <f>IF(SUM(H223:H241)=0,0,(SUM(D223:D241)/SUM(H223:H241))</f>
         <v/>
       </c>
       <c r="E222" s="6">
-        <f>SUM(E223:E241)/SUM(H223:H241)</f>
+        <f>IF(SUM(H223:H241)=0,0,(SUM(E223:E241)/SUM(H223:H241))</f>
         <v/>
       </c>
       <c r="F222" s="6">
-        <f>SUM(F223:F241)/SUM(H223:H241)</f>
+        <f>IF(SUM(H223:H241)=0,0,(SUM(F223:F241)/SUM(H223:H241))</f>
         <v/>
       </c>
       <c r="G222" s="6">
-        <f>SUM(G223:G241)/SUM(H223:H241)</f>
+        <f>IF(SUM(H223:H241)=0,0,(SUM(G223:G241)/SUM(H223:H241))</f>
         <v/>
       </c>
     </row>
@@ -6544,31 +6544,31 @@
         <v>16</v>
       </c>
       <c r="C250" s="6">
-        <f>SUM(C251:C252)/SUM(J251:J252)</f>
+        <f>IF(SUM(J251:J252)=0,0,(SUM(C251:C252)/SUM(J251:J252))</f>
         <v/>
       </c>
       <c r="D250" s="6">
-        <f>SUM(D251:D252)/SUM(J251:J252)</f>
+        <f>IF(SUM(J251:J252)=0,0,(SUM(D251:D252)/SUM(J251:J252))</f>
         <v/>
       </c>
       <c r="E250" s="6">
-        <f>SUM(E251:E252)/SUM(J251:J252)</f>
+        <f>IF(SUM(J251:J252)=0,0,(SUM(E251:E252)/SUM(J251:J252))</f>
         <v/>
       </c>
       <c r="F250" s="6">
-        <f>SUM(F251:F252)/SUM(J251:J252)</f>
+        <f>IF(SUM(J251:J252)=0,0,(SUM(F251:F252)/SUM(J251:J252))</f>
         <v/>
       </c>
       <c r="G250" s="6">
-        <f>SUM(G251:G252)/SUM(J251:J252)</f>
+        <f>IF(SUM(J251:J252)=0,0,(SUM(G251:G252)/SUM(J251:J252))</f>
         <v/>
       </c>
       <c r="H250" s="6">
-        <f>SUM(H251:H252)/SUM(J251:J252)</f>
+        <f>IF(SUM(J251:J252)=0,0,(SUM(H251:H252)/SUM(J251:J252))</f>
         <v/>
       </c>
       <c r="I250" s="6">
-        <f>SUM(I251:I252)/SUM(J251:J252)</f>
+        <f>IF(SUM(J251:J252)=0,0,(SUM(I251:I252)/SUM(J251:J252))</f>
         <v/>
       </c>
     </row>
@@ -6673,15 +6673,15 @@
         <v>16</v>
       </c>
       <c r="C255" s="6">
-        <f>SUM(C256:C257)/SUM(F256:F257)</f>
+        <f>IF(SUM(F256:F257)=0,0,(SUM(C256:C257)/SUM(F256:F257))</f>
         <v/>
       </c>
       <c r="D255" s="6">
-        <f>SUM(D256:D257)/SUM(F256:F257)</f>
+        <f>IF(SUM(F256:F257)=0,0,(SUM(D256:D257)/SUM(F256:F257))</f>
         <v/>
       </c>
       <c r="E255" s="6">
-        <f>SUM(E256:E257)/SUM(F256:F257)</f>
+        <f>IF(SUM(F256:F257)=0,0,(SUM(E256:E257)/SUM(F256:F257))</f>
         <v/>
       </c>
     </row>
@@ -6756,15 +6756,15 @@
         <v>16</v>
       </c>
       <c r="C260" s="6">
-        <f>SUM(C261:C262)/SUM(F261:F262)</f>
+        <f>IF(SUM(F261:F262)=0,0,(SUM(C261:C262)/SUM(F261:F262))</f>
         <v/>
       </c>
       <c r="D260" s="6">
-        <f>SUM(D261:D262)/SUM(F261:F262)</f>
+        <f>IF(SUM(F261:F262)=0,0,(SUM(D261:D262)/SUM(F261:F262))</f>
         <v/>
       </c>
       <c r="E260" s="6">
-        <f>SUM(E261:E262)/SUM(F261:F262)</f>
+        <f>IF(SUM(F261:F262)=0,0,(SUM(E261:E262)/SUM(F261:F262))</f>
         <v/>
       </c>
     </row>
@@ -6839,15 +6839,15 @@
         <v>16</v>
       </c>
       <c r="C265" s="6">
-        <f>SUM(C266:C267)/SUM(F266:F267)</f>
+        <f>IF(SUM(F266:F267)=0,0,(SUM(C266:C267)/SUM(F266:F267))</f>
         <v/>
       </c>
       <c r="D265" s="6">
-        <f>SUM(D266:D267)/SUM(F266:F267)</f>
+        <f>IF(SUM(F266:F267)=0,0,(SUM(D266:D267)/SUM(F266:F267))</f>
         <v/>
       </c>
       <c r="E265" s="6">
-        <f>SUM(E266:E267)/SUM(F266:F267)</f>
+        <f>IF(SUM(F266:F267)=0,0,(SUM(E266:E267)/SUM(F266:F267))</f>
         <v/>
       </c>
     </row>
@@ -6932,23 +6932,23 @@
         <v>16</v>
       </c>
       <c r="C276" s="6">
-        <f>SUM(C277:C280)/SUM(H277:H280)</f>
+        <f>IF(SUM(H277:H280)=0,0,(SUM(C277:C280)/SUM(H277:H280))</f>
         <v/>
       </c>
       <c r="D276" s="6">
-        <f>SUM(D277:D280)/SUM(H277:H280)</f>
+        <f>IF(SUM(H277:H280)=0,0,(SUM(D277:D280)/SUM(H277:H280))</f>
         <v/>
       </c>
       <c r="E276" s="6">
-        <f>SUM(E277:E280)/SUM(H277:H280)</f>
+        <f>IF(SUM(H277:H280)=0,0,(SUM(E277:E280)/SUM(H277:H280))</f>
         <v/>
       </c>
       <c r="F276" s="6">
-        <f>SUM(F277:F280)/SUM(H277:H280)</f>
+        <f>IF(SUM(H277:H280)=0,0,(SUM(F277:F280)/SUM(H277:H280))</f>
         <v/>
       </c>
       <c r="G276" s="6">
-        <f>SUM(G277:G280)/SUM(H277:H280)</f>
+        <f>IF(SUM(H277:H280)=0,0,(SUM(G277:G280)/SUM(H277:H280))</f>
         <v/>
       </c>
     </row>
@@ -7105,15 +7105,15 @@
         <v>16</v>
       </c>
       <c r="C283" s="6">
-        <f>SUM(C284:C287)/SUM(F284:F287)</f>
+        <f>IF(SUM(F284:F287)=0,0,(SUM(C284:C287)/SUM(F284:F287))</f>
         <v/>
       </c>
       <c r="D283" s="6">
-        <f>SUM(D284:D287)/SUM(F284:F287)</f>
+        <f>IF(SUM(F284:F287)=0,0,(SUM(D284:D287)/SUM(F284:F287))</f>
         <v/>
       </c>
       <c r="E283" s="6">
-        <f>SUM(E284:E287)/SUM(F284:F287)</f>
+        <f>IF(SUM(F284:F287)=0,0,(SUM(E284:E287)/SUM(F284:F287))</f>
         <v/>
       </c>
     </row>
@@ -7234,15 +7234,15 @@
         <v>16</v>
       </c>
       <c r="C290" s="6">
-        <f>SUM(C291:C294)/SUM(F291:F294)</f>
+        <f>IF(SUM(F291:F294)=0,0,(SUM(C291:C294)/SUM(F291:F294))</f>
         <v/>
       </c>
       <c r="D290" s="6">
-        <f>SUM(D291:D294)/SUM(F291:F294)</f>
+        <f>IF(SUM(F291:F294)=0,0,(SUM(D291:D294)/SUM(F291:F294))</f>
         <v/>
       </c>
       <c r="E290" s="6">
-        <f>SUM(E291:E294)/SUM(F291:F294)</f>
+        <f>IF(SUM(F291:F294)=0,0,(SUM(E291:E294)/SUM(F291:F294))</f>
         <v/>
       </c>
     </row>
@@ -7362,15 +7362,15 @@
         <v>16</v>
       </c>
       <c r="C297" s="6">
-        <f>SUM(C298:C301)/SUM(F298:F301)</f>
+        <f>IF(SUM(F298:F301)=0,0,(SUM(C298:C301)/SUM(F298:F301))</f>
         <v/>
       </c>
       <c r="D297" s="6">
-        <f>SUM(D298:D301)/SUM(F298:F301)</f>
+        <f>IF(SUM(F298:F301)=0,0,(SUM(D298:D301)/SUM(F298:F301))</f>
         <v/>
       </c>
       <c r="E297" s="6">
-        <f>SUM(E298:E301)/SUM(F298:F301)</f>
+        <f>IF(SUM(F298:F301)=0,0,(SUM(E298:E301)/SUM(F298:F301))</f>
         <v/>
       </c>
     </row>
@@ -7508,35 +7508,35 @@
         <v>16</v>
       </c>
       <c r="C310" s="6">
-        <f>SUM(C311:C329)/SUM(K311:K329)</f>
+        <f>IF(SUM(K311:K329)=0,0,(SUM(C311:C329)/SUM(K311:K329))</f>
         <v/>
       </c>
       <c r="D310" s="6">
-        <f>SUM(D311:D329)/SUM(K311:K329)</f>
+        <f>IF(SUM(K311:K329)=0,0,(SUM(D311:D329)/SUM(K311:K329))</f>
         <v/>
       </c>
       <c r="E310" s="6">
-        <f>SUM(E311:E329)/SUM(K311:K329)</f>
+        <f>IF(SUM(K311:K329)=0,0,(SUM(E311:E329)/SUM(K311:K329))</f>
         <v/>
       </c>
       <c r="F310" s="6">
-        <f>SUM(F311:F329)/SUM(K311:K329)</f>
+        <f>IF(SUM(K311:K329)=0,0,(SUM(F311:F329)/SUM(K311:K329))</f>
         <v/>
       </c>
       <c r="G310" s="6">
-        <f>SUM(G311:G329)/SUM(K311:K329)</f>
+        <f>IF(SUM(K311:K329)=0,0,(SUM(G311:G329)/SUM(K311:K329))</f>
         <v/>
       </c>
       <c r="H310" s="6">
-        <f>SUM(H311:H329)/SUM(K311:K329)</f>
+        <f>IF(SUM(K311:K329)=0,0,(SUM(H311:H329)/SUM(K311:K329))</f>
         <v/>
       </c>
       <c r="I310" s="6">
-        <f>SUM(I311:I329)/SUM(K311:K329)</f>
+        <f>IF(SUM(K311:K329)=0,0,(SUM(I311:I329)/SUM(K311:K329))</f>
         <v/>
       </c>
       <c r="J310" s="6">
-        <f>SUM(J311:J329)/SUM(K311:K329)</f>
+        <f>IF(SUM(K311:K329)=0,0,(SUM(J311:J329)/SUM(K311:K329))</f>
         <v/>
       </c>
     </row>
@@ -8345,23 +8345,23 @@
         <v>16</v>
       </c>
       <c r="C332" s="6">
-        <f>SUM(C333:C351)/SUM(H333:H351)</f>
+        <f>IF(SUM(H333:H351)=0,0,(SUM(C333:C351)/SUM(H333:H351))</f>
         <v/>
       </c>
       <c r="D332" s="6">
-        <f>SUM(D333:D351)/SUM(H333:H351)</f>
+        <f>IF(SUM(H333:H351)=0,0,(SUM(D333:D351)/SUM(H333:H351))</f>
         <v/>
       </c>
       <c r="E332" s="6">
-        <f>SUM(E333:E351)/SUM(H333:H351)</f>
+        <f>IF(SUM(H333:H351)=0,0,(SUM(E333:E351)/SUM(H333:H351))</f>
         <v/>
       </c>
       <c r="F332" s="6">
-        <f>SUM(F333:F351)/SUM(H333:H351)</f>
+        <f>IF(SUM(H333:H351)=0,0,(SUM(F333:F351)/SUM(H333:H351))</f>
         <v/>
       </c>
       <c r="G332" s="6">
-        <f>SUM(G333:G351)/SUM(H333:H351)</f>
+        <f>IF(SUM(H333:H351)=0,0,(SUM(G333:G351)/SUM(H333:H351))</f>
         <v/>
       </c>
     </row>
@@ -8955,35 +8955,35 @@
         <v>16</v>
       </c>
       <c r="C354" s="6">
-        <f>SUM(C355:C373)/SUM(K355:K373)</f>
+        <f>IF(SUM(K355:K373)=0,0,(SUM(C355:C373)/SUM(K355:K373))</f>
         <v/>
       </c>
       <c r="D354" s="6">
-        <f>SUM(D355:D373)/SUM(K355:K373)</f>
+        <f>IF(SUM(K355:K373)=0,0,(SUM(D355:D373)/SUM(K355:K373))</f>
         <v/>
       </c>
       <c r="E354" s="6">
-        <f>SUM(E355:E373)/SUM(K355:K373)</f>
+        <f>IF(SUM(K355:K373)=0,0,(SUM(E355:E373)/SUM(K355:K373))</f>
         <v/>
       </c>
       <c r="F354" s="6">
-        <f>SUM(F355:F373)/SUM(K355:K373)</f>
+        <f>IF(SUM(K355:K373)=0,0,(SUM(F355:F373)/SUM(K355:K373))</f>
         <v/>
       </c>
       <c r="G354" s="6">
-        <f>SUM(G355:G373)/SUM(K355:K373)</f>
+        <f>IF(SUM(K355:K373)=0,0,(SUM(G355:G373)/SUM(K355:K373))</f>
         <v/>
       </c>
       <c r="H354" s="6">
-        <f>SUM(H355:H373)/SUM(K355:K373)</f>
+        <f>IF(SUM(K355:K373)=0,0,(SUM(H355:H373)/SUM(K355:K373))</f>
         <v/>
       </c>
       <c r="I354" s="6">
-        <f>SUM(I355:I373)/SUM(K355:K373)</f>
+        <f>IF(SUM(K355:K373)=0,0,(SUM(I355:I373)/SUM(K355:K373))</f>
         <v/>
       </c>
       <c r="J354" s="6">
-        <f>SUM(J355:J373)/SUM(K355:K373)</f>
+        <f>IF(SUM(K355:K373)=0,0,(SUM(J355:J373)/SUM(K355:K373))</f>
         <v/>
       </c>
     </row>
@@ -9737,23 +9737,23 @@
         <v>16</v>
       </c>
       <c r="C376" s="6">
-        <f>SUM(C377:C395)/SUM(H377:H395)</f>
+        <f>IF(SUM(H377:H395)=0,0,(SUM(C377:C395)/SUM(H377:H395))</f>
         <v/>
       </c>
       <c r="D376" s="6">
-        <f>SUM(D377:D395)/SUM(H377:H395)</f>
+        <f>IF(SUM(H377:H395)=0,0,(SUM(D377:D395)/SUM(H377:H395))</f>
         <v/>
       </c>
       <c r="E376" s="6">
-        <f>SUM(E377:E395)/SUM(H377:H395)</f>
+        <f>IF(SUM(H377:H395)=0,0,(SUM(E377:E395)/SUM(H377:H395))</f>
         <v/>
       </c>
       <c r="F376" s="6">
-        <f>SUM(F377:F395)/SUM(H377:H395)</f>
+        <f>IF(SUM(H377:H395)=0,0,(SUM(F377:F395)/SUM(H377:H395))</f>
         <v/>
       </c>
       <c r="G376" s="6">
-        <f>SUM(G377:G395)/SUM(H377:H395)</f>
+        <f>IF(SUM(H377:H395)=0,0,(SUM(G377:G395)/SUM(H377:H395))</f>
         <v/>
       </c>
     </row>
@@ -10342,35 +10342,35 @@
         <v>16</v>
       </c>
       <c r="C404" s="6">
-        <f>SUM(C405:C410)/SUM(K405:K410)</f>
+        <f>IF(SUM(K405:K410)=0,0,(SUM(C405:C410)/SUM(K405:K410))</f>
         <v/>
       </c>
       <c r="D404" s="6">
-        <f>SUM(D405:D410)/SUM(K405:K410)</f>
+        <f>IF(SUM(K405:K410)=0,0,(SUM(D405:D410)/SUM(K405:K410))</f>
         <v/>
       </c>
       <c r="E404" s="6">
-        <f>SUM(E405:E410)/SUM(K405:K410)</f>
+        <f>IF(SUM(K405:K410)=0,0,(SUM(E405:E410)/SUM(K405:K410))</f>
         <v/>
       </c>
       <c r="F404" s="6">
-        <f>SUM(F405:F410)/SUM(K405:K410)</f>
+        <f>IF(SUM(K405:K410)=0,0,(SUM(F405:F410)/SUM(K405:K410))</f>
         <v/>
       </c>
       <c r="G404" s="6">
-        <f>SUM(G405:G410)/SUM(K405:K410)</f>
+        <f>IF(SUM(K405:K410)=0,0,(SUM(G405:G410)/SUM(K405:K410))</f>
         <v/>
       </c>
       <c r="H404" s="6">
-        <f>SUM(H405:H410)/SUM(K405:K410)</f>
+        <f>IF(SUM(K405:K410)=0,0,(SUM(H405:H410)/SUM(K405:K410))</f>
         <v/>
       </c>
       <c r="I404" s="6">
-        <f>SUM(I405:I410)/SUM(K405:K410)</f>
+        <f>IF(SUM(K405:K410)=0,0,(SUM(I405:I410)/SUM(K405:K410))</f>
         <v/>
       </c>
       <c r="J404" s="6">
-        <f>SUM(J405:J410)/SUM(K405:K410)</f>
+        <f>IF(SUM(K405:K410)=0,0,(SUM(J405:J410)/SUM(K405:K410))</f>
         <v/>
       </c>
     </row>
@@ -10650,23 +10650,23 @@
         <v>16</v>
       </c>
       <c r="C413" s="6">
-        <f>SUM(C414:C419)/SUM(H414:H419)</f>
+        <f>IF(SUM(H414:H419)=0,0,(SUM(C414:C419)/SUM(H414:H419))</f>
         <v/>
       </c>
       <c r="D413" s="6">
-        <f>SUM(D414:D419)/SUM(H414:H419)</f>
+        <f>IF(SUM(H414:H419)=0,0,(SUM(D414:D419)/SUM(H414:H419))</f>
         <v/>
       </c>
       <c r="E413" s="6">
-        <f>SUM(E414:E419)/SUM(H414:H419)</f>
+        <f>IF(SUM(H414:H419)=0,0,(SUM(E414:E419)/SUM(H414:H419))</f>
         <v/>
       </c>
       <c r="F413" s="6">
-        <f>SUM(F414:F419)/SUM(H414:H419)</f>
+        <f>IF(SUM(H414:H419)=0,0,(SUM(F414:F419)/SUM(H414:H419))</f>
         <v/>
       </c>
       <c r="G413" s="6">
-        <f>SUM(G414:G419)/SUM(H414:H419)</f>
+        <f>IF(SUM(H414:H419)=0,0,(SUM(G414:G419)/SUM(H414:H419))</f>
         <v/>
       </c>
     </row>
@@ -10875,23 +10875,23 @@
         <v>16</v>
       </c>
       <c r="C422" s="6">
-        <f>SUM(C423:C428)/SUM(H423:H428)</f>
+        <f>IF(SUM(H423:H428)=0,0,(SUM(C423:C428)/SUM(H423:H428))</f>
         <v/>
       </c>
       <c r="D422" s="6">
-        <f>SUM(D423:D428)/SUM(H423:H428)</f>
+        <f>IF(SUM(H423:H428)=0,0,(SUM(D423:D428)/SUM(H423:H428))</f>
         <v/>
       </c>
       <c r="E422" s="6">
-        <f>SUM(E423:E428)/SUM(H423:H428)</f>
+        <f>IF(SUM(H423:H428)=0,0,(SUM(E423:E428)/SUM(H423:H428))</f>
         <v/>
       </c>
       <c r="F422" s="6">
-        <f>SUM(F423:F428)/SUM(H423:H428)</f>
+        <f>IF(SUM(H423:H428)=0,0,(SUM(F423:F428)/SUM(H423:H428))</f>
         <v/>
       </c>
       <c r="G422" s="6">
-        <f>SUM(G423:G428)/SUM(H423:H428)</f>
+        <f>IF(SUM(H423:H428)=0,0,(SUM(G423:G428)/SUM(H423:H428))</f>
         <v/>
       </c>
     </row>
@@ -11093,19 +11093,19 @@
         <v>16</v>
       </c>
       <c r="C431" s="6">
-        <f>SUM(C432:C437)/SUM(G432:G437)</f>
+        <f>IF(SUM(G432:G437)=0,0,(SUM(C432:C437)/SUM(G432:G437))</f>
         <v/>
       </c>
       <c r="D431" s="6">
-        <f>SUM(D432:D437)/SUM(G432:G437)</f>
+        <f>IF(SUM(G432:G437)=0,0,(SUM(D432:D437)/SUM(G432:G437))</f>
         <v/>
       </c>
       <c r="E431" s="6">
-        <f>SUM(E432:E437)/SUM(G432:G437)</f>
+        <f>IF(SUM(G432:G437)=0,0,(SUM(E432:E437)/SUM(G432:G437))</f>
         <v/>
       </c>
       <c r="F431" s="6">
-        <f>SUM(F432:F437)/SUM(G432:G437)</f>
+        <f>IF(SUM(G432:G437)=0,0,(SUM(F432:F437)/SUM(G432:G437))</f>
         <v/>
       </c>
     </row>
@@ -11297,23 +11297,23 @@
         <v>16</v>
       </c>
       <c r="C446" s="6">
-        <f>SUM(C447)/SUM(H447)</f>
+        <f>IF(SUM(H447)=0,0,(SUM(C447)/SUM(H447))</f>
         <v/>
       </c>
       <c r="D446" s="6">
-        <f>SUM(D447)/SUM(H447)</f>
+        <f>IF(SUM(H447)=0,0,(SUM(D447)/SUM(H447))</f>
         <v/>
       </c>
       <c r="E446" s="6">
-        <f>SUM(E447)/SUM(H447)</f>
+        <f>IF(SUM(H447)=0,0,(SUM(E447)/SUM(H447))</f>
         <v/>
       </c>
       <c r="F446" s="6">
-        <f>SUM(F447)/SUM(H447)</f>
+        <f>IF(SUM(H447)=0,0,(SUM(F447)/SUM(H447))</f>
         <v/>
       </c>
       <c r="G446" s="6">
-        <f>SUM(G447)/SUM(H447)</f>
+        <f>IF(SUM(H447)=0,0,(SUM(G447)/SUM(H447))</f>
         <v/>
       </c>
     </row>
@@ -11371,11 +11371,11 @@
         <v>16</v>
       </c>
       <c r="C450" s="6">
-        <f>SUM(C451)/SUM(E451)</f>
+        <f>IF(SUM(E451)=0,0,(SUM(C451)/SUM(E451))</f>
         <v/>
       </c>
       <c r="D450" s="6">
-        <f>SUM(D451)/SUM(E451)</f>
+        <f>IF(SUM(E451)=0,0,(SUM(D451)/SUM(E451))</f>
         <v/>
       </c>
     </row>
@@ -11421,11 +11421,11 @@
         <v>16</v>
       </c>
       <c r="C454" s="6">
-        <f>SUM(C455)/SUM(E455)</f>
+        <f>IF(SUM(E455)=0,0,(SUM(C455)/SUM(E455))</f>
         <v/>
       </c>
       <c r="D454" s="6">
-        <f>SUM(D455)/SUM(E455)</f>
+        <f>IF(SUM(E455)=0,0,(SUM(D455)/SUM(E455))</f>
         <v/>
       </c>
     </row>
@@ -11471,11 +11471,11 @@
         <v>16</v>
       </c>
       <c r="C458" s="6">
-        <f>SUM(C459)/SUM(E459)</f>
+        <f>IF(SUM(E459)=0,0,(SUM(C459)/SUM(E459))</f>
         <v/>
       </c>
       <c r="D458" s="6">
-        <f>SUM(D459)/SUM(E459)</f>
+        <f>IF(SUM(E459)=0,0,(SUM(D459)/SUM(E459))</f>
         <v/>
       </c>
     </row>
@@ -11544,35 +11544,35 @@
         <v>16</v>
       </c>
       <c r="C468" s="6">
-        <f>SUM(C469:C478)/SUM(K469:K478)</f>
+        <f>IF(SUM(K469:K478)=0,0,(SUM(C469:C478)/SUM(K469:K478))</f>
         <v/>
       </c>
       <c r="D468" s="6">
-        <f>SUM(D469:D478)/SUM(K469:K478)</f>
+        <f>IF(SUM(K469:K478)=0,0,(SUM(D469:D478)/SUM(K469:K478))</f>
         <v/>
       </c>
       <c r="E468" s="6">
-        <f>SUM(E469:E478)/SUM(K469:K478)</f>
+        <f>IF(SUM(K469:K478)=0,0,(SUM(E469:E478)/SUM(K469:K478))</f>
         <v/>
       </c>
       <c r="F468" s="6">
-        <f>SUM(F469:F478)/SUM(K469:K478)</f>
+        <f>IF(SUM(K469:K478)=0,0,(SUM(F469:F478)/SUM(K469:K478))</f>
         <v/>
       </c>
       <c r="G468" s="6">
-        <f>SUM(G469:G478)/SUM(K469:K478)</f>
+        <f>IF(SUM(K469:K478)=0,0,(SUM(G469:G478)/SUM(K469:K478))</f>
         <v/>
       </c>
       <c r="H468" s="6">
-        <f>SUM(H469:H478)/SUM(K469:K478)</f>
+        <f>IF(SUM(K469:K478)=0,0,(SUM(H469:H478)/SUM(K469:K478))</f>
         <v/>
       </c>
       <c r="I468" s="6">
-        <f>SUM(I469:I478)/SUM(K469:K478)</f>
+        <f>IF(SUM(K469:K478)=0,0,(SUM(I469:I478)/SUM(K469:K478))</f>
         <v/>
       </c>
       <c r="J468" s="6">
-        <f>SUM(J469:J478)/SUM(K469:K478)</f>
+        <f>IF(SUM(K469:K478)=0,0,(SUM(J469:J478)/SUM(K469:K478))</f>
         <v/>
       </c>
     </row>
@@ -12014,23 +12014,23 @@
         <v>16</v>
       </c>
       <c r="C481" s="6">
-        <f>SUM(C482:C491)/SUM(H482:H491)</f>
+        <f>IF(SUM(H482:H491)=0,0,(SUM(C482:C491)/SUM(H482:H491))</f>
         <v/>
       </c>
       <c r="D481" s="6">
-        <f>SUM(D482:D491)/SUM(H482:H491)</f>
+        <f>IF(SUM(H482:H491)=0,0,(SUM(D482:D491)/SUM(H482:H491))</f>
         <v/>
       </c>
       <c r="E481" s="6">
-        <f>SUM(E482:E491)/SUM(H482:H491)</f>
+        <f>IF(SUM(H482:H491)=0,0,(SUM(E482:E491)/SUM(H482:H491))</f>
         <v/>
       </c>
       <c r="F481" s="6">
-        <f>SUM(F482:F491)/SUM(H482:H491)</f>
+        <f>IF(SUM(H482:H491)=0,0,(SUM(F482:F491)/SUM(H482:H491))</f>
         <v/>
       </c>
       <c r="G481" s="6">
-        <f>SUM(G482:G491)/SUM(H482:H491)</f>
+        <f>IF(SUM(H482:H491)=0,0,(SUM(G482:G491)/SUM(H482:H491))</f>
         <v/>
       </c>
     </row>
@@ -12361,31 +12361,31 @@
         <v>16</v>
       </c>
       <c r="C494" s="6">
-        <f>SUM(C495:C504)/SUM(J495:J504)</f>
+        <f>IF(SUM(J495:J504)=0,0,(SUM(C495:C504)/SUM(J495:J504))</f>
         <v/>
       </c>
       <c r="D494" s="6">
-        <f>SUM(D495:D504)/SUM(J495:J504)</f>
+        <f>IF(SUM(J495:J504)=0,0,(SUM(D495:D504)/SUM(J495:J504))</f>
         <v/>
       </c>
       <c r="E494" s="6">
-        <f>SUM(E495:E504)/SUM(J495:J504)</f>
+        <f>IF(SUM(J495:J504)=0,0,(SUM(E495:E504)/SUM(J495:J504))</f>
         <v/>
       </c>
       <c r="F494" s="6">
-        <f>SUM(F495:F504)/SUM(J495:J504)</f>
+        <f>IF(SUM(J495:J504)=0,0,(SUM(F495:F504)/SUM(J495:J504))</f>
         <v/>
       </c>
       <c r="G494" s="6">
-        <f>SUM(G495:G504)/SUM(J495:J504)</f>
+        <f>IF(SUM(J495:J504)=0,0,(SUM(G495:G504)/SUM(J495:J504))</f>
         <v/>
       </c>
       <c r="H494" s="6">
-        <f>SUM(H495:H504)/SUM(J495:J504)</f>
+        <f>IF(SUM(J495:J504)=0,0,(SUM(H495:H504)/SUM(J495:J504))</f>
         <v/>
       </c>
       <c r="I494" s="6">
-        <f>SUM(I495:I504)/SUM(J495:J504)</f>
+        <f>IF(SUM(J495:J504)=0,0,(SUM(I495:I504)/SUM(J495:J504))</f>
         <v/>
       </c>
     </row>
@@ -12764,23 +12764,23 @@
         <v>16</v>
       </c>
       <c r="C507" s="6">
-        <f>SUM(C508:C517)/SUM(H508:H517)</f>
+        <f>IF(SUM(H508:H517)=0,0,(SUM(C508:C517)/SUM(H508:H517))</f>
         <v/>
       </c>
       <c r="D507" s="6">
-        <f>SUM(D508:D517)/SUM(H508:H517)</f>
+        <f>IF(SUM(H508:H517)=0,0,(SUM(D508:D517)/SUM(H508:H517))</f>
         <v/>
       </c>
       <c r="E507" s="6">
-        <f>SUM(E508:E517)/SUM(H508:H517)</f>
+        <f>IF(SUM(H508:H517)=0,0,(SUM(E508:E517)/SUM(H508:H517))</f>
         <v/>
       </c>
       <c r="F507" s="6">
-        <f>SUM(F508:F517)/SUM(H508:H517)</f>
+        <f>IF(SUM(H508:H517)=0,0,(SUM(F508:F517)/SUM(H508:H517))</f>
         <v/>
       </c>
       <c r="G507" s="6">
-        <f>SUM(G508:G517)/SUM(H508:H517)</f>
+        <f>IF(SUM(H508:H517)=0,0,(SUM(G508:G517)/SUM(H508:H517))</f>
         <v/>
       </c>
     </row>
@@ -13109,27 +13109,27 @@
         <v>16</v>
       </c>
       <c r="C526" s="6">
-        <f>SUM(C527:C532)/SUM(I527:I532)</f>
+        <f>IF(SUM(I527:I532)=0,0,(SUM(C527:C532)/SUM(I527:I532))</f>
         <v/>
       </c>
       <c r="D526" s="6">
-        <f>SUM(D527:D532)/SUM(I527:I532)</f>
+        <f>IF(SUM(I527:I532)=0,0,(SUM(D527:D532)/SUM(I527:I532))</f>
         <v/>
       </c>
       <c r="E526" s="6">
-        <f>SUM(E527:E532)/SUM(I527:I532)</f>
+        <f>IF(SUM(I527:I532)=0,0,(SUM(E527:E532)/SUM(I527:I532))</f>
         <v/>
       </c>
       <c r="F526" s="6">
-        <f>SUM(F527:F532)/SUM(I527:I532)</f>
+        <f>IF(SUM(I527:I532)=0,0,(SUM(F527:F532)/SUM(I527:I532))</f>
         <v/>
       </c>
       <c r="G526" s="6">
-        <f>SUM(G527:G532)/SUM(I527:I532)</f>
+        <f>IF(SUM(I527:I532)=0,0,(SUM(G527:G532)/SUM(I527:I532))</f>
         <v/>
       </c>
       <c r="H526" s="6">
-        <f>SUM(H527:H532)/SUM(I527:I532)</f>
+        <f>IF(SUM(I527:I532)=0,0,(SUM(H527:H532)/SUM(I527:I532))</f>
         <v/>
       </c>
     </row>
@@ -13369,19 +13369,19 @@
         <v>16</v>
       </c>
       <c r="C535" s="6">
-        <f>SUM(C536:C541)/SUM(G536:G541)</f>
+        <f>IF(SUM(G536:G541)=0,0,(SUM(C536:C541)/SUM(G536:G541))</f>
         <v/>
       </c>
       <c r="D535" s="6">
-        <f>SUM(D536:D541)/SUM(G536:G541)</f>
+        <f>IF(SUM(G536:G541)=0,0,(SUM(D536:D541)/SUM(G536:G541))</f>
         <v/>
       </c>
       <c r="E535" s="6">
-        <f>SUM(E536:E541)/SUM(G536:G541)</f>
+        <f>IF(SUM(G536:G541)=0,0,(SUM(E536:E541)/SUM(G536:G541))</f>
         <v/>
       </c>
       <c r="F535" s="6">
-        <f>SUM(F536:F541)/SUM(G536:G541)</f>
+        <f>IF(SUM(G536:G541)=0,0,(SUM(F536:F541)/SUM(G536:G541))</f>
         <v/>
       </c>
     </row>
@@ -13569,19 +13569,19 @@
         <v>16</v>
       </c>
       <c r="C544" s="6">
-        <f>SUM(C545:C550)/SUM(G545:G550)</f>
+        <f>IF(SUM(G545:G550)=0,0,(SUM(C545:C550)/SUM(G545:G550))</f>
         <v/>
       </c>
       <c r="D544" s="6">
-        <f>SUM(D545:D550)/SUM(G545:G550)</f>
+        <f>IF(SUM(G545:G550)=0,0,(SUM(D545:D550)/SUM(G545:G550))</f>
         <v/>
       </c>
       <c r="E544" s="6">
-        <f>SUM(E545:E550)/SUM(G545:G550)</f>
+        <f>IF(SUM(G545:G550)=0,0,(SUM(E545:E550)/SUM(G545:G550))</f>
         <v/>
       </c>
       <c r="F544" s="6">
-        <f>SUM(F545:F550)/SUM(G545:G550)</f>
+        <f>IF(SUM(G545:G550)=0,0,(SUM(F545:F550)/SUM(G545:G550))</f>
         <v/>
       </c>
     </row>
@@ -13765,19 +13765,19 @@
         <v>16</v>
       </c>
       <c r="C553" s="6">
-        <f>SUM(C554:C559)/SUM(G554:G559)</f>
+        <f>IF(SUM(G554:G559)=0,0,(SUM(C554:C559)/SUM(G554:G559))</f>
         <v/>
       </c>
       <c r="D553" s="6">
-        <f>SUM(D554:D559)/SUM(G554:G559)</f>
+        <f>IF(SUM(G554:G559)=0,0,(SUM(D554:D559)/SUM(G554:G559))</f>
         <v/>
       </c>
       <c r="E553" s="6">
-        <f>SUM(E554:E559)/SUM(G554:G559)</f>
+        <f>IF(SUM(G554:G559)=0,0,(SUM(E554:E559)/SUM(G554:G559))</f>
         <v/>
       </c>
       <c r="F553" s="6">
-        <f>SUM(F554:F559)/SUM(G554:G559)</f>
+        <f>IF(SUM(G554:G559)=0,0,(SUM(F554:F559)/SUM(G554:G559))</f>
         <v/>
       </c>
     </row>
@@ -13969,23 +13969,23 @@
         <v>16</v>
       </c>
       <c r="C568" s="6">
-        <f>SUM(C569:C576)/SUM(H569:H576)</f>
+        <f>IF(SUM(H569:H576)=0,0,(SUM(C569:C576)/SUM(H569:H576))</f>
         <v/>
       </c>
       <c r="D568" s="6">
-        <f>SUM(D569:D576)/SUM(H569:H576)</f>
+        <f>IF(SUM(H569:H576)=0,0,(SUM(D569:D576)/SUM(H569:H576))</f>
         <v/>
       </c>
       <c r="E568" s="6">
-        <f>SUM(E569:E576)/SUM(H569:H576)</f>
+        <f>IF(SUM(H569:H576)=0,0,(SUM(E569:E576)/SUM(H569:H576))</f>
         <v/>
       </c>
       <c r="F568" s="6">
-        <f>SUM(F569:F576)/SUM(H569:H576)</f>
+        <f>IF(SUM(H569:H576)=0,0,(SUM(F569:F576)/SUM(H569:H576))</f>
         <v/>
       </c>
       <c r="G568" s="6">
-        <f>SUM(G569:G576)/SUM(H569:H576)</f>
+        <f>IF(SUM(H569:H576)=0,0,(SUM(G569:G576)/SUM(H569:H576))</f>
         <v/>
       </c>
     </row>
@@ -14267,11 +14267,11 @@
         <v>16</v>
       </c>
       <c r="C579" s="6">
-        <f>SUM(C580:C587)/SUM(E580:E587)</f>
+        <f>IF(SUM(E580:E587)=0,0,(SUM(C580:C587)/SUM(E580:E587))</f>
         <v/>
       </c>
       <c r="D579" s="6">
-        <f>SUM(D580:D587)/SUM(E580:E587)</f>
+        <f>IF(SUM(E580:E587)=0,0,(SUM(D580:D587)/SUM(E580:E587))</f>
         <v/>
       </c>
     </row>
@@ -14472,31 +14472,31 @@
         <v>16</v>
       </c>
       <c r="C590" s="6">
-        <f>SUM(C591:C598)/SUM(J591:J598)</f>
+        <f>IF(SUM(J591:J598)=0,0,(SUM(C591:C598)/SUM(J591:J598))</f>
         <v/>
       </c>
       <c r="D590" s="6">
-        <f>SUM(D591:D598)/SUM(J591:J598)</f>
+        <f>IF(SUM(J591:J598)=0,0,(SUM(D591:D598)/SUM(J591:J598))</f>
         <v/>
       </c>
       <c r="E590" s="6">
-        <f>SUM(E591:E598)/SUM(J591:J598)</f>
+        <f>IF(SUM(J591:J598)=0,0,(SUM(E591:E598)/SUM(J591:J598))</f>
         <v/>
       </c>
       <c r="F590" s="6">
-        <f>SUM(F591:F598)/SUM(J591:J598)</f>
+        <f>IF(SUM(J591:J598)=0,0,(SUM(F591:F598)/SUM(J591:J598))</f>
         <v/>
       </c>
       <c r="G590" s="6">
-        <f>SUM(G591:G598)/SUM(J591:J598)</f>
+        <f>IF(SUM(J591:J598)=0,0,(SUM(G591:G598)/SUM(J591:J598))</f>
         <v/>
       </c>
       <c r="H590" s="6">
-        <f>SUM(H591:H598)/SUM(J591:J598)</f>
+        <f>IF(SUM(J591:J598)=0,0,(SUM(H591:H598)/SUM(J591:J598))</f>
         <v/>
       </c>
       <c r="I590" s="6">
-        <f>SUM(I591:I598)/SUM(J591:J598)</f>
+        <f>IF(SUM(J591:J598)=0,0,(SUM(I591:I598)/SUM(J591:J598))</f>
         <v/>
       </c>
     </row>
@@ -14801,11 +14801,11 @@
         <v>16</v>
       </c>
       <c r="C601" s="6">
-        <f>SUM(C602:C609)/SUM(E602:E609)</f>
+        <f>IF(SUM(E602:E609)=0,0,(SUM(C602:C609)/SUM(E602:E609))</f>
         <v/>
       </c>
       <c r="D601" s="6">
-        <f>SUM(D602:D609)/SUM(E602:E609)</f>
+        <f>IF(SUM(E602:E609)=0,0,(SUM(D602:D609)/SUM(E602:E609))</f>
         <v/>
       </c>
     </row>
